--- a/SMT/stats.xlsx
+++ b/SMT/stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bddf3b150f09e84d/Desktop/cdmo-m1_project/SMT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1226" documentId="8_{FB34CF16-DA6E-41BF-8758-B6F87D20EFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE41DD74-507B-4B35-BF67-13F84509E154}"/>
+  <xr:revisionPtr revIDLastSave="1228" documentId="8_{FB34CF16-DA6E-41BF-8758-B6F87D20EFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCA2EFED-D340-4C61-8F17-48D9C2B02893}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{AA380840-D976-4584-9954-1634D918EB26}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Instances</t>
   </si>
@@ -54,13 +54,10 @@
     <t>Solved</t>
   </si>
   <si>
-    <t>Symmetry model (Hard)</t>
+    <t>Rotation with symmetry model</t>
   </si>
   <si>
-    <t>Symmetry model (Soft)</t>
-  </si>
-  <si>
-    <t>Rotation with symmetry model</t>
+    <t>Symmetry model</t>
   </si>
 </sst>
 </file>
@@ -172,7 +169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -327,25 +324,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -399,7 +383,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -407,27 +409,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -744,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333E8026-DE64-4258-82FE-35BDE48AAB3D}">
-  <dimension ref="A2:AR24"/>
+  <dimension ref="A2:AR23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -757,48 +738,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="24"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="30"/>
+      <c r="AO2" s="30"/>
+      <c r="AP2" s="30"/>
     </row>
     <row r="3" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
@@ -931,558 +912,553 @@
       <c r="AR3" s="10"/>
     </row>
     <row r="4" spans="1:44" ht="14.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="31" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="23">
         <v>6.9263000000034901E-3</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="23">
         <v>1.340789999999E-2</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="23">
         <v>1.90745000000021E-2</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="23">
         <v>2.8844899999995701E-2</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="23">
         <v>8.5406300000002405E-2</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="23">
         <v>0.10866769999999799</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="23">
         <v>0.20498070000000701</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="23">
         <v>0.12255300000001</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="23">
         <v>0.18955910000001</v>
       </c>
-      <c r="L4" s="26">
+      <c r="L4" s="23">
         <v>0.69472859999999004</v>
       </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26">
+      <c r="M4" s="23"/>
+      <c r="N4" s="23">
         <v>1.7045812</v>
       </c>
-      <c r="O4" s="26">
+      <c r="O4" s="23">
         <v>1.83996179999996</v>
       </c>
-      <c r="P4" s="26">
+      <c r="P4" s="23">
         <v>4.6989906000000001</v>
       </c>
-      <c r="Q4" s="26">
+      <c r="Q4" s="23">
         <v>1.8278253999999301</v>
       </c>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26">
+      <c r="R4" s="23"/>
+      <c r="S4" s="23">
         <v>6.6732078000000001</v>
       </c>
-      <c r="T4" s="26">
+      <c r="T4" s="23">
         <v>15.605427500000101</v>
       </c>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26">
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23">
         <v>64.852207699999695</v>
       </c>
-      <c r="Z4" s="26">
+      <c r="Z4" s="23">
         <v>7.0224046999996901</v>
       </c>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26">
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23">
         <v>299.07215830000001</v>
       </c>
-      <c r="AC4" s="26">
+      <c r="AC4" s="23">
         <v>92.363905399999496</v>
       </c>
-      <c r="AD4" s="26">
+      <c r="AD4" s="23">
         <v>104.097872999999</v>
       </c>
-      <c r="AE4" s="26">
+      <c r="AE4" s="23">
         <v>219.84517579999999</v>
       </c>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="26">
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23">
         <v>10.036256599999399</v>
       </c>
-      <c r="AH4" s="26"/>
-      <c r="AI4" s="26">
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="23">
         <v>41.395329599999897</v>
       </c>
-      <c r="AJ4" s="26"/>
-      <c r="AK4" s="26"/>
-      <c r="AL4" s="26"/>
-      <c r="AM4" s="26"/>
-      <c r="AN4" s="26"/>
-      <c r="AO4" s="26"/>
-      <c r="AP4" s="26"/>
+      <c r="AJ4" s="23"/>
+      <c r="AK4" s="23"/>
+      <c r="AL4" s="23"/>
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="23"/>
+      <c r="AO4" s="23"/>
+      <c r="AP4" s="23"/>
       <c r="AQ4" s="19">
         <f>COUNTIF(C4:AP4,"&lt;300")</f>
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="27">
+        <v>7</v>
+      </c>
+      <c r="C5" s="24">
         <v>4.9417899999980301E-2</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="25">
         <v>8.3366000000069107E-3</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="25">
         <v>1.48548999999889E-2</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="24">
         <v>3.0350300000009101E-2</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="25">
         <v>5.9655999999961198E-2</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="25">
         <v>9.11491999999611E-2</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="25">
         <v>8.4060999999962804E-2</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="24">
         <v>0.186792700000012</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="25">
         <v>0.15046119999999499</v>
       </c>
-      <c r="L5" s="28">
+      <c r="L5" s="25">
         <v>0.43526609999997801</v>
       </c>
-      <c r="M5" s="29"/>
-      <c r="N5" s="27">
+      <c r="M5" s="26"/>
+      <c r="N5" s="24">
         <v>2.1610263000000001</v>
       </c>
-      <c r="O5" s="28">
+      <c r="O5" s="25">
         <v>1.3054160000000301</v>
       </c>
-      <c r="P5" s="28">
+      <c r="P5" s="25">
         <v>4.2952263999999296</v>
       </c>
-      <c r="Q5" s="27">
+      <c r="Q5" s="24">
         <v>2.0222991000000499</v>
       </c>
-      <c r="R5" s="29"/>
-      <c r="S5" s="27">
+      <c r="R5" s="26"/>
+      <c r="S5" s="24">
         <v>11.1052497</v>
       </c>
-      <c r="T5" s="28">
+      <c r="T5" s="25">
         <v>12.774926799999999</v>
       </c>
-      <c r="U5" s="29"/>
-      <c r="V5" s="28">
+      <c r="U5" s="26"/>
+      <c r="V5" s="25">
         <v>245.12621480000001</v>
       </c>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="28">
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="25">
         <v>46.281141099999701</v>
       </c>
-      <c r="Z5" s="28">
+      <c r="Z5" s="25">
         <v>7.0077951000002896</v>
       </c>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="27">
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="24">
         <v>111.122083199999</v>
       </c>
-      <c r="AD5" s="27">
+      <c r="AD5" s="24">
         <v>122.56245269999999</v>
       </c>
-      <c r="AE5" s="27">
+      <c r="AE5" s="24">
         <v>297.75127090000001</v>
       </c>
-      <c r="AF5" s="29"/>
-      <c r="AG5" s="27">
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="24">
         <v>20.984368499999601</v>
       </c>
-      <c r="AH5" s="29"/>
-      <c r="AI5" s="27">
+      <c r="AH5" s="26"/>
+      <c r="AI5" s="24">
         <v>59.8237139000002</v>
       </c>
-      <c r="AJ5" s="29"/>
-      <c r="AK5" s="29"/>
-      <c r="AL5" s="29"/>
-      <c r="AM5" s="29"/>
-      <c r="AN5" s="29"/>
-      <c r="AO5" s="29"/>
-      <c r="AP5" s="29"/>
+      <c r="AJ5" s="26"/>
+      <c r="AK5" s="26"/>
+      <c r="AL5" s="26"/>
+      <c r="AM5" s="26"/>
+      <c r="AN5" s="26"/>
+      <c r="AO5" s="26"/>
+      <c r="AP5" s="26"/>
       <c r="AQ5" s="20">
-        <f t="shared" ref="AQ5:AQ8" si="0">COUNTIF(C5:AP5,"&lt;300")</f>
+        <f t="shared" ref="AQ5:AQ7" si="0">COUNTIF(C5:AP5,"&lt;300")</f>
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="30"/>
-      <c r="AH6" s="30"/>
-      <c r="AI6" s="30"/>
-      <c r="AJ6" s="30"/>
-      <c r="AK6" s="30"/>
-      <c r="AL6" s="30"/>
-      <c r="AM6" s="30"/>
-      <c r="AN6" s="30"/>
-      <c r="AO6" s="30"/>
-      <c r="AP6" s="30"/>
-      <c r="AQ6" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="7" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C6" s="26">
         <v>8.1329000000067708E-3</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D6" s="26">
         <v>1.9034900000008199E-2</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E6" s="26">
         <v>4.1726099999991099E-2</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F6" s="26">
         <v>0.13348080000000001</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G6" s="26">
         <v>0.55531880000000899</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H6" s="26">
         <v>0.94276899999999797</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I6" s="26">
         <v>1.1597763999999899</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J6" s="26">
         <v>1.29117349999998</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K6" s="26">
         <v>2.8372837</v>
       </c>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="29"/>
-      <c r="AG7" s="29"/>
-      <c r="AH7" s="29"/>
-      <c r="AI7" s="29"/>
-      <c r="AJ7" s="29"/>
-      <c r="AK7" s="29"/>
-      <c r="AL7" s="29"/>
-      <c r="AM7" s="29"/>
-      <c r="AN7" s="29"/>
-      <c r="AO7" s="29"/>
-      <c r="AP7" s="29"/>
-      <c r="AQ7" s="20">
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="26"/>
+      <c r="AH6" s="26"/>
+      <c r="AI6" s="26"/>
+      <c r="AJ6" s="26"/>
+      <c r="AK6" s="26"/>
+      <c r="AL6" s="26"/>
+      <c r="AM6" s="26"/>
+      <c r="AN6" s="26"/>
+      <c r="AO6" s="26"/>
+      <c r="AP6" s="26"/>
+      <c r="AQ6" s="20">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="25"/>
-      <c r="B8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="31">
+    <row r="7" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="31"/>
+      <c r="B7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="28">
         <v>1.14825999999998E-2</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D7" s="28">
         <v>3.7320100000000501E-2</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E7" s="29">
         <v>3.1372799999999701E-2</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F7" s="29">
         <v>0.103520299999999</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G7" s="28">
         <v>0.61370049999999998</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H7" s="28">
         <v>0.98407689999999903</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I7" s="28">
         <v>1.3112104</v>
       </c>
-      <c r="J8" s="31">
+      <c r="J7" s="28">
         <v>1.48241419999999</v>
       </c>
-      <c r="K8" s="32">
+      <c r="K7" s="29">
         <v>0.473939100000002</v>
       </c>
-      <c r="L8" s="32">
+      <c r="L7" s="29">
         <v>217.31515229999999</v>
       </c>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="30"/>
-      <c r="AB8" s="30"/>
-      <c r="AC8" s="30"/>
-      <c r="AD8" s="30"/>
-      <c r="AE8" s="30"/>
-      <c r="AF8" s="30"/>
-      <c r="AG8" s="30"/>
-      <c r="AH8" s="30"/>
-      <c r="AI8" s="30"/>
-      <c r="AJ8" s="30"/>
-      <c r="AK8" s="30"/>
-      <c r="AL8" s="30"/>
-      <c r="AM8" s="30"/>
-      <c r="AN8" s="30"/>
-      <c r="AO8" s="30"/>
-      <c r="AP8" s="30"/>
-      <c r="AQ8" s="21">
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="27"/>
+      <c r="AG7" s="27"/>
+      <c r="AH7" s="27"/>
+      <c r="AI7" s="27"/>
+      <c r="AJ7" s="27"/>
+      <c r="AK7" s="27"/>
+      <c r="AL7" s="27"/>
+      <c r="AM7" s="27"/>
+      <c r="AN7" s="27"/>
+      <c r="AO7" s="27"/>
+      <c r="AP7" s="27"/>
+      <c r="AQ7" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:44" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:44" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="14" t="str">
+        <f>IF(COUNTIF(C4:C7,"&lt;300") &gt;= 1,"Solved","Unsolved")</f>
+        <v>Solved</v>
+      </c>
+      <c r="D8" s="14" t="str">
+        <f t="shared" ref="D8:AP8" si="1">IF(COUNTIF(D4:D7,"&lt;300") &gt;= 1,"Solved","Unsolved")</f>
+        <v>Solved</v>
+      </c>
+      <c r="E8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Solved</v>
+      </c>
+      <c r="F8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Solved</v>
+      </c>
+      <c r="G8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Solved</v>
+      </c>
+      <c r="H8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Solved</v>
+      </c>
+      <c r="I8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Solved</v>
+      </c>
+      <c r="J8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Solved</v>
+      </c>
+      <c r="K8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Solved</v>
+      </c>
+      <c r="L8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Solved</v>
+      </c>
+      <c r="M8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Unsolved</v>
+      </c>
+      <c r="N8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Solved</v>
+      </c>
+      <c r="O8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Solved</v>
+      </c>
+      <c r="P8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Solved</v>
+      </c>
+      <c r="Q8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Solved</v>
+      </c>
+      <c r="R8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Unsolved</v>
+      </c>
+      <c r="S8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Solved</v>
+      </c>
+      <c r="T8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Solved</v>
+      </c>
+      <c r="U8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Unsolved</v>
+      </c>
+      <c r="V8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Solved</v>
+      </c>
+      <c r="W8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Unsolved</v>
+      </c>
+      <c r="X8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Unsolved</v>
+      </c>
+      <c r="Y8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Solved</v>
+      </c>
+      <c r="Z8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Solved</v>
+      </c>
+      <c r="AA8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Unsolved</v>
+      </c>
+      <c r="AB8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Solved</v>
+      </c>
+      <c r="AC8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Solved</v>
+      </c>
+      <c r="AD8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Solved</v>
+      </c>
+      <c r="AE8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Solved</v>
+      </c>
+      <c r="AF8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Unsolved</v>
+      </c>
+      <c r="AG8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Solved</v>
+      </c>
+      <c r="AH8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Unsolved</v>
+      </c>
+      <c r="AI8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Solved</v>
+      </c>
+      <c r="AJ8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Unsolved</v>
+      </c>
+      <c r="AK8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Unsolved</v>
+      </c>
+      <c r="AL8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Unsolved</v>
+      </c>
+      <c r="AM8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Unsolved</v>
+      </c>
+      <c r="AN8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Unsolved</v>
+      </c>
+      <c r="AO8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Unsolved</v>
+      </c>
+      <c r="AP8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Unsolved</v>
+      </c>
+      <c r="AQ8" s="18">
+        <f>COUNTIF(C8:AP8,"Solved")</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="15"/>
-      <c r="C9" s="14" t="str">
-        <f>IF(COUNTIF(C4:C8,"&lt;300") &gt;= 1,"Solved","Unsolved")</f>
-        <v>Solved</v>
-      </c>
-      <c r="D9" s="14" t="str">
-        <f t="shared" ref="D9:AP9" si="1">IF(COUNTIF(D4:D8,"&lt;300") &gt;= 1,"Solved","Unsolved")</f>
-        <v>Solved</v>
-      </c>
-      <c r="E9" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Solved</v>
-      </c>
-      <c r="F9" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Solved</v>
-      </c>
-      <c r="G9" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Solved</v>
-      </c>
-      <c r="H9" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Solved</v>
-      </c>
-      <c r="I9" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Solved</v>
-      </c>
-      <c r="J9" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Solved</v>
-      </c>
-      <c r="K9" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Solved</v>
-      </c>
-      <c r="L9" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Solved</v>
-      </c>
-      <c r="M9" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Unsolved</v>
-      </c>
-      <c r="N9" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Solved</v>
-      </c>
-      <c r="O9" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Solved</v>
-      </c>
-      <c r="P9" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Solved</v>
-      </c>
-      <c r="Q9" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Solved</v>
-      </c>
-      <c r="R9" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Unsolved</v>
-      </c>
-      <c r="S9" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Solved</v>
-      </c>
-      <c r="T9" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Solved</v>
-      </c>
-      <c r="U9" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Unsolved</v>
-      </c>
-      <c r="V9" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Solved</v>
-      </c>
-      <c r="W9" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Unsolved</v>
-      </c>
-      <c r="X9" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Unsolved</v>
-      </c>
-      <c r="Y9" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Solved</v>
-      </c>
-      <c r="Z9" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Solved</v>
-      </c>
-      <c r="AA9" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Unsolved</v>
-      </c>
-      <c r="AB9" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Solved</v>
-      </c>
-      <c r="AC9" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Solved</v>
-      </c>
-      <c r="AD9" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Solved</v>
-      </c>
-      <c r="AE9" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Solved</v>
-      </c>
-      <c r="AF9" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Unsolved</v>
-      </c>
-      <c r="AG9" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Solved</v>
-      </c>
-      <c r="AH9" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Unsolved</v>
-      </c>
-      <c r="AI9" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Solved</v>
-      </c>
-      <c r="AJ9" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Unsolved</v>
-      </c>
-      <c r="AK9" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Unsolved</v>
-      </c>
-      <c r="AL9" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Unsolved</v>
-      </c>
-      <c r="AM9" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Unsolved</v>
-      </c>
-      <c r="AN9" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Unsolved</v>
-      </c>
-      <c r="AO9" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Unsolved</v>
-      </c>
-      <c r="AP9" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Unsolved</v>
-      </c>
-      <c r="AQ9" s="18">
-        <f>COUNTIF(C9:AP9,"Solved")</f>
-        <v>25</v>
-      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="14"/>
+      <c r="AM9" s="14"/>
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="14"/>
+      <c r="AP9" s="14"/>
+      <c r="AQ9" s="3"/>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
@@ -1528,51 +1504,50 @@
       <c r="AO10" s="14"/>
       <c r="AP10" s="14"/>
       <c r="AQ10" s="3"/>
+      <c r="AR10" s="16"/>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="14"/>
-      <c r="AE11" s="14"/>
-      <c r="AF11" s="14"/>
-      <c r="AG11" s="14"/>
-      <c r="AH11" s="14"/>
-      <c r="AI11" s="14"/>
-      <c r="AJ11" s="14"/>
-      <c r="AK11" s="14"/>
-      <c r="AL11" s="14"/>
-      <c r="AM11" s="14"/>
-      <c r="AN11" s="14"/>
-      <c r="AO11" s="14"/>
-      <c r="AP11" s="14"/>
-      <c r="AQ11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="16"/>
       <c r="AR11" s="16"/>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.3">
@@ -1617,7 +1592,7 @@
       <c r="AO12" s="3"/>
       <c r="AP12" s="3"/>
       <c r="AQ12" s="16"/>
-      <c r="AR12" s="16"/>
+      <c r="AR12" s="22"/>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.3">
       <c r="C13" s="3"/>
@@ -1627,10 +1602,10 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
@@ -1661,51 +1636,49 @@
       <c r="AO13" s="3"/>
       <c r="AP13" s="3"/>
       <c r="AQ13" s="16"/>
-      <c r="AR13" s="22"/>
+      <c r="AR13" s="16"/>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.3">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
-      <c r="AJ14" s="3"/>
-      <c r="AK14" s="3"/>
-      <c r="AL14" s="3"/>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="3"/>
-      <c r="AO14" s="3"/>
-      <c r="AP14" s="3"/>
-      <c r="AQ14" s="16"/>
-      <c r="AR14" s="16"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.3">
       <c r="C15" s="3"/>
@@ -1750,8 +1723,9 @@
       <c r="AP15" s="1"/>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1791,8 +1765,7 @@
       <c r="AO16" s="1"/>
       <c r="AP16" s="1"/>
     </row>
-    <row r="17" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B17" s="5"/>
+    <row r="17" spans="3:42" x14ac:dyDescent="0.3">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1834,7 +1807,7 @@
       <c r="AO17" s="1"/>
       <c r="AP17" s="1"/>
     </row>
-    <row r="18" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:42" x14ac:dyDescent="0.3">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1876,7 +1849,7 @@
       <c r="AO18" s="1"/>
       <c r="AP18" s="1"/>
     </row>
-    <row r="19" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:42" x14ac:dyDescent="0.3">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1918,7 +1891,7 @@
       <c r="AO19" s="1"/>
       <c r="AP19" s="1"/>
     </row>
-    <row r="20" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:42" x14ac:dyDescent="0.3">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1960,7 +1933,7 @@
       <c r="AO20" s="1"/>
       <c r="AP20" s="1"/>
     </row>
-    <row r="21" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:42" x14ac:dyDescent="0.3">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2002,7 +1975,7 @@
       <c r="AO21" s="1"/>
       <c r="AP21" s="1"/>
     </row>
-    <row r="22" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:42" x14ac:dyDescent="0.3">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2044,7 +2017,7 @@
       <c r="AO22" s="1"/>
       <c r="AP22" s="1"/>
     </row>
-    <row r="23" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:42" x14ac:dyDescent="0.3">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2086,52 +2059,10 @@
       <c r="AO23" s="1"/>
       <c r="AP23" s="1"/>
     </row>
-    <row r="24" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
-      <c r="AI24" s="1"/>
-      <c r="AJ24" s="1"/>
-      <c r="AK24" s="1"/>
-      <c r="AL24" s="1"/>
-      <c r="AM24" s="1"/>
-      <c r="AN24" s="1"/>
-      <c r="AO24" s="1"/>
-      <c r="AP24" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C2:AP2"/>
-    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A4:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
